--- a/Formato_Grupo_Trabajo.xlsx
+++ b/Formato_Grupo_Trabajo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauti\AppData\Local\Temp\Rar$DIa53924.47177\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilic\OneDrive\Documents\Ciber 2025-1\Desarrollo Servicios Web II\Workspace\Proyecto-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D199FD2-2FAD-4A59-99C0-49B601109DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5FE8D6-DBEE-4A33-9B39-B41F7AE9E77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GrupoProyecto" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>GRUPO #</t>
   </si>
@@ -110,7 +110,7 @@
         <i/>
         <sz val="20"/>
         <color theme="9" tint="0.59999389629810485"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="等线"/>
         <scheme val="minor"/>
       </rPr>
       <t>IMPLEMENTACIÓN DE COMPRA Y VENTA EN
@@ -129,16 +129,36 @@
   <si>
     <t>i202212475</t>
   </si>
+  <si>
+    <t>i201921060</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUAREZ CAZORLA</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANGEL RODRIGO</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>i201921060@cibertec.edu.pe</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPUTACIÓN E INFORMÁTICA</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -146,7 +166,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -154,7 +174,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -162,7 +182,7 @@
       <b/>
       <sz val="20"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -171,20 +191,20 @@
       <i/>
       <sz val="20"/>
       <color theme="9" tint="0.59999389629810485"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -193,6 +213,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -307,6 +334,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -322,12 +352,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -666,10 +693,10 @@
   <dimension ref="B2:T25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="3.5546875" customWidth="1"/>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
@@ -683,23 +710,23 @@
     <col min="19" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="66" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:20" ht="66" customHeight="1">
+      <c r="B2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="4" spans="2:20" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:20" ht="25.2" customHeight="1">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -730,8 +757,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
+    <row r="5" spans="2:20" ht="18" customHeight="1">
+      <c r="B5" s="15"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -747,33 +774,47 @@
       <c r="G5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="11">
         <v>960791680</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
+    <row r="6" spans="2:20" ht="18" customHeight="1">
+      <c r="B6" s="15"/>
       <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5">
+        <v>993523353</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
+    <row r="7" spans="2:20" ht="18" customHeight="1">
+      <c r="B7" s="15"/>
       <c r="C7" s="3">
         <v>3</v>
       </c>
@@ -786,8 +827,8 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
+    <row r="8" spans="2:20" ht="18" customHeight="1">
+      <c r="B8" s="16"/>
       <c r="C8" s="3">
         <v>4</v>
       </c>
@@ -800,63 +841,63 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20">
       <c r="D11"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20">
       <c r="D12"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20">
       <c r="T13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20">
       <c r="T14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20">
       <c r="T15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20">
       <c r="T16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="20:20">
       <c r="T17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="20:20">
       <c r="T18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="20:20">
       <c r="T21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="20:20">
       <c r="T22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="20:20">
       <c r="T23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="20:20">
       <c r="T24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="20:20">
       <c r="T25" t="s">
         <v>20</v>
       </c>
@@ -866,6 +907,7 @@
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B4:B8"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I8" xr:uid="{BDB4C588-3507-4843-987F-E54E79518000}">
       <formula1>$T$21:$T$25</formula1>
@@ -876,8 +918,9 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{5541F28E-EB26-44F3-82BB-49BB6BD17D79}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{8EA01A62-2E28-4C87-970D-ED188812245D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>